--- a/base/zhiban/值班表.xlsx
+++ b/base/zhiban/值班表.xlsx
@@ -78,16 +78,16 @@
     <t>星期六</t>
   </si>
   <si>
+    <t>宋仁杰</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
     <t>贺雨琦</t>
   </si>
   <si>
-    <t>星期日</t>
-  </si>
-  <si>
     <t>星期一</t>
-  </si>
-  <si>
-    <t>宋仁杰</t>
   </si>
   <si>
     <t>a</t>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,19 +173,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -756,19 +743,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,131 +773,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -934,8 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,7 +1247,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
@@ -1375,11 +1360,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="11">
         <f>VLOOKUP(D6,联系方式!$A$1:$F$17,2,FALSE)</f>
-        <v>15650584196</v>
+        <v>17663702085</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -1398,7 +1383,7 @@
       </c>
       <c r="E7" s="11">
         <f>VLOOKUP(D7,联系方式!$A$1:$F$17,2,FALSE)</f>
-        <v>13070622534</v>
+        <v>18753179791</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -1413,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="11">
         <f>VLOOKUP(D8,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1431,10 +1416,10 @@
         <v>45754</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" s="11">
         <f>VLOOKUP(D9,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1453,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="11">
         <f>VLOOKUP(D10,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1497,7 +1482,7 @@
         <f>VLOOKUP(D12,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>17663702085</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" ht="15.75" spans="1:6">
       <c r="A13" s="8">
@@ -1516,7 +1501,7 @@
         <f>VLOOKUP(D13,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>17663702085</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="15.75" spans="1:6">
       <c r="A14" s="8">
@@ -1529,13 +1514,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14" s="11">
         <f>VLOOKUP(D14,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>18753179791</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" ht="15.75" spans="1:6">
       <c r="A15" s="8">
@@ -1547,8 +1532,8 @@
       <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
+      <c r="D15" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="11">
         <f>VLOOKUP(D15,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1566,16 +1551,16 @@
         <v>45761</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="E16" s="11">
         <f>VLOOKUP(D16,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>13070622534</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" ht="15.75" spans="1:6">
       <c r="A17" s="8">
@@ -1588,13 +1573,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17" s="11">
         <f>VLOOKUP(D17,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>13070622534</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" ht="15.75" spans="1:6">
       <c r="A18" s="8">
@@ -1613,7 +1598,7 @@
         <f>VLOOKUP(D18,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>17663702085</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" ht="15.75" spans="1:6">
       <c r="A19" s="8">
@@ -1625,7 +1610,7 @@
       <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11">
@@ -1646,14 +1631,14 @@
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14">
         <f>VLOOKUP(D20,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>18753179791</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1667,14 +1652,14 @@
       <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>18</v>
+      <c r="D21" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E21" s="11">
         <f>VLOOKUP(D21,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>18753179791</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" ht="15.75" spans="1:6">
       <c r="A22" s="8">
@@ -1687,13 +1672,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22" s="11">
         <f>VLOOKUP(D22,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>13070622534</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" ht="15.75" spans="1:6">
       <c r="A23" s="8">
@@ -1703,10 +1688,10 @@
         <v>45768</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="E23" s="11">
         <f>VLOOKUP(D23,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1726,14 +1711,14 @@
       <c r="C24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>15</v>
+      <c r="D24" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E24" s="11">
         <f>VLOOKUP(D24,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>13070622534</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" ht="15.75" spans="1:6">
       <c r="A25" s="8">
@@ -1745,14 +1730,14 @@
       <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="11">
         <f>VLOOKUP(D25,联系方式!$A$1:$F$17,2,FALSE)</f>
         <v>17663702085</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" ht="15.75" spans="1:6">
       <c r="A26" s="8">
@@ -1764,7 +1749,7 @@
       <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="11">
@@ -1783,8 +1768,8 @@
       <c r="C27" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>18</v>
+      <c r="D27" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E27" s="11">
         <f>VLOOKUP(D27,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1802,8 +1787,8 @@
       <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>18</v>
+      <c r="D28" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E28" s="11">
         <f>VLOOKUP(D28,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1821,8 +1806,8 @@
       <c r="C29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>15</v>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E29" s="11">
         <f>VLOOKUP(D29,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1838,10 +1823,10 @@
         <v>45775</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="15" t="s">
         <v>18</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E30" s="11">
         <f>VLOOKUP(D30,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1861,8 +1846,8 @@
       <c r="C31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>18</v>
+      <c r="D31" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E31" s="11">
         <f>VLOOKUP(D31,联系方式!$A$1:$F$17,2,FALSE)</f>
@@ -1880,7 +1865,7 @@
       <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="11">
@@ -2020,7 +2005,7 @@
     </row>
     <row r="14" ht="15.75" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>18753179791</v>
@@ -2028,7 +2013,7 @@
     </row>
     <row r="15" ht="15.75" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>13070622534</v>
